--- a/database/ImportAndExport.xlsx
+++ b/database/ImportAndExport.xlsx
@@ -48,13 +48,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +64,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,10 +77,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,16 +100,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +111,29 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,16 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,10 +170,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,38 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,7 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,175 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +449,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,30 +472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +494,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +515,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -553,164 +549,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,16 +710,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1088,7 +1076,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P67" sqref="P67"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,18 +1109,18 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -1162,28 +1150,28 @@
       <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1211,14 +1199,14 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="5">
@@ -1244,14 +1232,14 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="5">
@@ -1277,14 +1265,14 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5">
@@ -1310,14 +1298,14 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="5">
@@ -1343,14 +1331,14 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
@@ -1376,14 +1364,14 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
@@ -1409,14 +1397,14 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
@@ -1442,14 +1430,14 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
@@ -1475,14 +1463,14 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
@@ -1508,14 +1496,14 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
@@ -1541,14 +1529,14 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="5">
@@ -1574,14 +1562,14 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="5">
@@ -1607,14 +1595,14 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5">
@@ -1640,14 +1628,14 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="5">
@@ -1673,14 +1661,14 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5">
@@ -1706,14 +1694,14 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5">
@@ -1739,14 +1727,14 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5">
@@ -1772,14 +1760,14 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="5">
@@ -1805,14 +1793,14 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="5">
@@ -1838,28 +1826,28 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="10">
+      <c r="J22" s="11">
         <v>92</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="11">
         <v>149301</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="11">
         <v>0.1869</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="11">
         <v>707</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="12">
         <v>64</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="12">
         <v>77256</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="12">
         <v>0.0003</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1887,26 +1875,26 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="10">
+      <c r="J23" s="11">
         <v>57</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="11">
         <v>86573</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="11">
         <v>0.1402</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="11">
         <v>430</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="12">
         <v>73</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="12">
         <v>85829</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11" t="s">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1934,28 +1922,28 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="10">
+      <c r="J24" s="11">
         <v>83</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="11">
         <v>120157</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="11">
         <v>0.4121</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="11">
         <v>1124</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="12">
         <v>98</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="12">
         <v>109815</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="12">
         <v>0</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1983,26 +1971,26 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="10">
+      <c r="J25" s="11">
         <v>63</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="11">
         <v>83680</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="11">
         <v>0.2245</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="11">
         <v>647</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="12">
         <v>74</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="12">
         <v>85214</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11" t="s">
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2030,28 +2018,28 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="10">
+      <c r="J26" s="11">
         <v>49</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="11">
         <v>63586</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="11">
         <v>0.3284</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="11">
         <v>947</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="12">
         <v>71</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="12">
         <v>83123</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="12">
         <v>0</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2079,28 +2067,28 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="10">
+      <c r="J27" s="11">
         <v>60</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="11">
         <v>77349</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="11">
         <v>0.2714</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="11">
         <v>706</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="12">
         <v>76</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="12">
         <v>91807</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="12">
         <v>0</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2128,26 +2116,26 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="10">
+      <c r="J28" s="11">
         <v>44</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="11">
         <v>54970</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="11">
         <v>0.1093</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="11">
         <v>308</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="12">
         <v>46</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="12">
         <v>58429</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11" t="s">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2175,28 +2163,28 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="10">
+      <c r="J29" s="11">
         <v>50</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="11">
         <v>69659</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="11">
         <v>0.1687</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="11">
         <v>498</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="12">
         <v>30</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="12">
         <v>38284</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="12">
         <v>0</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2224,26 +2212,26 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="10">
+      <c r="J30" s="11">
         <v>70</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="11">
         <v>94259</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="11">
         <v>0.1194</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="11">
         <v>385</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="12">
         <v>58</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="12">
         <v>71866</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11" t="s">
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2271,26 +2259,26 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="10">
+      <c r="J31" s="11">
         <v>53</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="11">
         <v>71788</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="11">
         <v>0.0486</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="11">
         <v>182</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="12">
         <v>41</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="12">
         <v>51400</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11" t="s">
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2318,28 +2306,28 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="10">
+      <c r="J32" s="11">
         <v>24</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="11">
         <v>34224</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="11">
         <v>0.3605</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="11">
         <v>1213</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="12">
         <v>54</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="12">
         <v>65020</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="12">
         <v>0</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2367,26 +2355,26 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="10">
+      <c r="J33" s="11">
         <v>20</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="11">
         <v>28104</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="11">
         <v>0.4056</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="11">
         <v>1538</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="12">
         <v>70</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="12">
         <v>82398</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2414,28 +2402,28 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="10">
+      <c r="J34" s="11">
         <v>57</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="11">
         <v>77228</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="11">
         <v>0.6121</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="11">
         <v>2251</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="12">
         <v>61</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="12">
         <v>76293</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="12">
         <v>0</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2463,26 +2451,26 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="10">
+      <c r="J35" s="11">
         <v>74</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="11">
         <v>96698</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="11">
         <v>0.266</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="11">
         <v>711</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="12">
         <v>61</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="12">
         <v>71973</v>
       </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="5">
@@ -2508,26 +2496,26 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="10">
+      <c r="J36" s="11">
         <v>72</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="11">
         <v>97336</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="11">
         <v>0.2996</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="11">
         <v>850</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="12">
         <v>100</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="12">
         <v>118095</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="5">
@@ -2553,28 +2541,28 @@
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="10">
+      <c r="J37" s="11">
         <v>34</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="11">
         <v>47795</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="11">
         <v>0.3299</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="11">
         <v>844</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="12">
         <v>83</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="12">
         <v>100251</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="12">
         <v>0</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2602,26 +2590,26 @@
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="10">
+      <c r="J38" s="11">
         <v>30</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="11">
         <v>40311</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="11">
         <v>0.3064</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="11">
         <v>771</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="12">
         <v>59</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="12">
         <v>71179</v>
       </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="5">
@@ -2647,28 +2635,28 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="10">
+      <c r="J39" s="11">
         <v>32</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="11">
         <v>43823</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="11">
         <v>0.1301</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="11">
         <v>374</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="12">
         <v>49</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="12">
         <v>57501</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="12">
         <v>0</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2696,26 +2684,26 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="10">
+      <c r="J40" s="11">
         <v>59</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="11">
         <v>81709</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="11">
         <v>0.2155</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M40" s="11">
         <v>605</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="12">
         <v>59</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="12">
         <v>68508</v>
       </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="5">
@@ -2741,26 +2729,26 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="10">
+      <c r="J41" s="11">
         <v>26</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="11">
         <v>36278</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="11">
         <v>0.3245</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="11">
         <v>970</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="12">
         <v>40</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="12">
         <v>46550</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="5">
@@ -2786,26 +2774,26 @@
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="10">
+      <c r="J42" s="11">
         <v>40</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="11">
         <v>58796</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="11">
         <v>0.116</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="11">
         <v>337</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="12">
         <v>82</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="12">
         <v>97136</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="5">
@@ -2831,28 +2819,28 @@
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="10">
+      <c r="J43" s="11">
         <v>30</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="11">
         <v>43052</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="11">
         <v>7.8116</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="11">
         <v>12711</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="12">
         <v>54</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="12">
         <v>64816</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="12">
         <v>0</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2880,26 +2868,26 @@
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="10">
+      <c r="J44" s="11">
         <v>36</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="11">
         <v>51655</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="11">
         <v>0.7129</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M44" s="11">
         <v>2355</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="12">
         <v>71</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="12">
         <v>90596</v>
       </c>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="5">
@@ -2925,28 +2913,28 @@
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="10">
+      <c r="J45" s="11">
         <v>16</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="11">
         <v>23303</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="11">
         <v>0.7636</v>
       </c>
-      <c r="M45" s="10">
+      <c r="M45" s="11">
         <v>2508</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="12">
         <v>77</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="12">
         <v>102155</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="12">
         <v>0</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2974,26 +2962,26 @@
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="10">
+      <c r="J46" s="11">
         <v>56</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="11">
         <v>82815</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="11">
         <v>0.6307</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="11">
         <v>2066</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="12">
         <v>75</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="12">
         <v>104814</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="5">
@@ -3019,26 +3007,26 @@
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="10">
+      <c r="J47" s="11">
         <v>56</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="11">
         <v>81332</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="11">
         <v>0.1948</v>
       </c>
-      <c r="M47" s="10">
+      <c r="M47" s="11">
         <v>591</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="12">
         <v>60</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="12">
         <v>85792</v>
       </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="5">
@@ -3064,26 +3052,26 @@
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="10">
+      <c r="J48" s="11">
         <v>57</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="11">
         <v>82699</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="11">
         <v>0.1328</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="11">
         <v>386</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="12">
         <v>75</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="12">
         <v>108964</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="5">
@@ -3109,26 +3097,26 @@
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="10">
+      <c r="J49" s="11">
         <v>64</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="11">
         <v>92588</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="11">
         <v>0.4928</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49" s="11">
         <v>1398</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="12">
         <v>63</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="12">
         <v>98886</v>
       </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="5">
@@ -3154,28 +3142,28 @@
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="10">
+      <c r="J50" s="11">
         <v>47</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="11">
         <v>72323</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="11">
         <v>0.4855</v>
       </c>
-      <c r="M50" s="10">
+      <c r="M50" s="11">
         <v>1540</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="12">
         <v>32</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O50" s="12">
         <v>52407</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P50" s="12">
         <v>0</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q50" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3203,28 +3191,28 @@
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="10">
+      <c r="J51" s="11">
         <v>45</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="11">
         <v>68588</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="11">
         <v>0.1889</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M51" s="11">
         <v>588</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="12">
         <v>22</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="12">
         <v>35590</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="12">
         <v>0</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3252,28 +3240,28 @@
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="10">
+      <c r="J52" s="11">
         <v>60</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="11">
         <v>100282</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="11">
         <v>0.1293</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="11">
         <v>379</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="12">
         <v>19</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="12">
         <v>32318</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="12">
         <v>0</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3301,28 +3289,28 @@
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="10">
+      <c r="J53" s="11">
         <v>6</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="11">
         <v>11642</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="11">
         <v>0.2073</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="11">
         <v>662</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N53" s="12">
         <v>27</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O53" s="12">
         <v>44846</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="12">
         <v>0</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q53" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3350,28 +3338,28 @@
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="10">
+      <c r="J54" s="11">
         <v>9</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="11">
         <v>15653</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="11">
         <v>0.32</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M54" s="11">
         <v>1000</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N54" s="12">
         <v>21</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="12">
         <v>35232</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="12">
         <v>0</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q54" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3399,26 +3387,26 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="10">
+      <c r="J55" s="11">
         <v>2</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="11">
         <v>3993</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L55" s="11">
         <v>0.425</v>
       </c>
-      <c r="M55" s="10">
+      <c r="M55" s="11">
         <v>1232</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="12">
         <v>32</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="12">
         <v>53456</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="5">
@@ -3444,26 +3432,26 @@
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="10">
+      <c r="J56" s="11">
         <v>1</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="11">
         <v>1848</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="11">
         <v>0.8285</v>
       </c>
-      <c r="M56" s="10">
+      <c r="M56" s="11">
         <v>2829</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N56" s="12">
         <v>27</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="12">
         <v>45597</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="5">
@@ -3489,26 +3477,26 @@
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="10">
+      <c r="J57" s="11">
         <v>0</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="11">
         <v>476</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="11">
         <v>0.8123</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M57" s="11">
         <v>2355</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N57" s="12">
         <v>27</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="12">
         <v>41881</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="5">
@@ -3534,22 +3522,22 @@
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11">
         <v>1.1977</v>
       </c>
-      <c r="M58" s="10">
+      <c r="M58" s="11">
         <v>3023</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="12">
         <v>37</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="12">
         <v>58039</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="5">
@@ -3575,26 +3563,26 @@
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="10">
+      <c r="J59" s="11">
         <v>0</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="11">
         <v>118</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="11">
         <v>0.031</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M59" s="11">
         <v>100</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N59" s="12">
         <v>30</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="12">
         <v>43820</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="5">
@@ -3620,26 +3608,26 @@
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="10">
+      <c r="J60" s="11">
         <v>0</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="11">
         <v>108</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="11">
         <v>0.3096</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M60" s="11">
         <v>905</v>
       </c>
-      <c r="N60" s="11">
+      <c r="N60" s="12">
         <v>32</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O60" s="12">
         <v>46467</v>
       </c>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="5">
@@ -3665,49 +3653,229 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="12">
+      <c r="J61" s="13">
         <v>0</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="13">
         <v>316</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="13">
         <v>0.0424</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="13">
         <v>200</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="14">
         <v>50</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O61" s="14">
         <v>75889</v>
       </c>
-      <c r="P61" s="13">
+      <c r="P61" s="14">
         <v>0</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="Q61" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:17">
       <c r="A62" s="5">
         <v>43586</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="8">
+        <v>75</v>
+      </c>
+      <c r="C62" s="8">
+        <v>108406</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.1907</v>
+      </c>
+      <c r="E62" s="8">
+        <v>421</v>
+      </c>
+      <c r="F62" s="7">
+        <v>31</v>
+      </c>
+      <c r="G62" s="7">
+        <v>57190</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
+        <v>737</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0.0084</v>
+      </c>
+      <c r="M62" s="13">
+        <v>25</v>
+      </c>
+      <c r="N62" s="14">
+        <v>25</v>
+      </c>
+      <c r="O62" s="14">
+        <v>38389</v>
+      </c>
+      <c r="P62" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="5">
         <v>43617</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="8">
+        <v>72</v>
+      </c>
+      <c r="C63" s="8">
+        <v>103529</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.2125</v>
+      </c>
+      <c r="E63" s="8">
+        <v>477</v>
+      </c>
+      <c r="F63" s="7">
+        <v>23</v>
+      </c>
+      <c r="G63" s="7">
+        <v>43186</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="13">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
+        <v>681</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0.4286</v>
+      </c>
+      <c r="M63" s="13">
+        <v>1022</v>
+      </c>
+      <c r="N63" s="14">
+        <v>26</v>
+      </c>
+      <c r="O63" s="14">
+        <v>41327</v>
+      </c>
+      <c r="P63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="5">
         <v>43647</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="8">
+        <v>39</v>
+      </c>
+      <c r="C64" s="8">
+        <v>56720</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.6549</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1404</v>
+      </c>
+      <c r="F64" s="7">
+        <v>30</v>
+      </c>
+      <c r="G64" s="7">
+        <v>54318</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="13">
+        <v>21</v>
+      </c>
+      <c r="K64" s="13">
+        <v>32288</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0.2018</v>
+      </c>
+      <c r="M64" s="13">
+        <v>517</v>
+      </c>
+      <c r="N64" s="14">
+        <v>20</v>
+      </c>
+      <c r="O64" s="14">
+        <v>33744</v>
+      </c>
+      <c r="P64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="5">
         <v>43678</v>
+      </c>
+      <c r="B65" s="8">
+        <v>23</v>
+      </c>
+      <c r="C65" s="8">
+        <v>37121</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.0353</v>
+      </c>
+      <c r="E65" s="8">
+        <v>79</v>
+      </c>
+      <c r="F65" s="7">
+        <v>36</v>
+      </c>
+      <c r="G65" s="7">
+        <v>62567</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
+        <v>28</v>
+      </c>
+      <c r="K65" s="13">
+        <v>42157</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0.3479</v>
+      </c>
+      <c r="M65" s="13">
+        <v>831</v>
+      </c>
+      <c r="N65" s="14">
+        <v>18</v>
+      </c>
+      <c r="O65" s="14">
+        <v>30108</v>
+      </c>
+      <c r="P65" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:1">

--- a/database/ImportAndExport.xlsx
+++ b/database/ImportAndExport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,7 +64,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,14 +89,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,21 +108,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,14 +131,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -145,6 +145,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -153,9 +169,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,37 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +270,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,127 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,25 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,10 +452,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -472,21 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,36 +549,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,16 +567,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,115 +585,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1076,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3847,12 +3847,8 @@
       <c r="G65" s="7">
         <v>62567</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="13">
         <v>28</v>
       </c>
@@ -3878,20 +3874,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:17">
       <c r="A66" s="5">
         <v>43709</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="6">
+        <v>14</v>
+      </c>
+      <c r="C66" s="6">
+        <v>23206</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.0001</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7">
+        <v>86</v>
+      </c>
+      <c r="G66" s="7">
+        <v>137110</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="13">
+        <v>12</v>
+      </c>
+      <c r="K66" s="13">
+        <v>21577</v>
+      </c>
+      <c r="L66" s="13">
+        <v>0.2891</v>
+      </c>
+      <c r="M66" s="13">
+        <v>700</v>
+      </c>
+      <c r="N66" s="14">
+        <v>5</v>
+      </c>
+      <c r="O66" s="14">
+        <v>7630</v>
+      </c>
+      <c r="P66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="5">
         <v>43739</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="5">
         <v>43770</v>
       </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
